--- a/Collate hours worked from contractors Reframework/Database/Employee_consultant_table_07_09_2020.xlsx
+++ b/Collate hours worked from contractors Reframework/Database/Employee_consultant_table_07_09_2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\premal\Google Drive\QAC projects\HR automation\automation\HR-Payroll-automation\Collate hours worked from contractors Reframework\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BEA349D-74F4-4688-88F6-0709A196DE50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21FB7922-B240-47BD-AF6F-D8111DF91C82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25440" yWindow="5175" windowWidth="14400" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -652,7 +652,7 @@
         <v>18</v>
       </c>
       <c r="H2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J2">
         <v>36</v>
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="M2">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -690,7 +690,7 @@
         <v>24</v>
       </c>
       <c r="H3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J3">
         <v>36</v>
@@ -699,10 +699,10 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="M3">
-        <v>43</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -728,7 +728,7 @@
         <v>30</v>
       </c>
       <c r="H4">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="J4">
         <v>36</v>
@@ -737,10 +737,10 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="M4">
-        <v>48</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -766,7 +766,7 @@
         <v>18</v>
       </c>
       <c r="H5">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="J5">
         <v>36</v>
@@ -775,10 +775,10 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="M5">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -804,7 +804,7 @@
         <v>24</v>
       </c>
       <c r="H6">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J6">
         <v>36</v>
@@ -813,10 +813,10 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="M6">
-        <v>47</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -842,7 +842,7 @@
         <v>30</v>
       </c>
       <c r="H7">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="J7">
         <v>36</v>
@@ -851,10 +851,10 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="M7">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -880,7 +880,7 @@
         <v>18</v>
       </c>
       <c r="H8">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="J8">
         <v>36</v>
@@ -889,10 +889,10 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M8">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -918,7 +918,10 @@
         <v>24</v>
       </c>
       <c r="H9">
-        <v>9</v>
+        <v>24</v>
+      </c>
+      <c r="I9">
+        <v>36</v>
       </c>
       <c r="J9">
         <v>36</v>
@@ -927,10 +930,10 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="M9">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -956,7 +959,7 @@
         <v>30</v>
       </c>
       <c r="H10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J10">
         <v>36</v>
@@ -965,10 +968,10 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="M10">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -994,7 +997,7 @@
         <v>18</v>
       </c>
       <c r="H11">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="J11">
         <v>36</v>
@@ -1003,10 +1006,10 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="M11">
-        <v>43</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
